--- a/TNR_JDD/RT/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/RT/JDD.RT.EMP.xlsx
@@ -1,19 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="228" yWindow="552" windowWidth="26844" windowHeight="10260" activeTab="2"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
+    <sheet name="Version" sheetId="1" r:id="rId1"/>
+    <sheet name="Info" sheetId="2" r:id="rId2"/>
+    <sheet name="001" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjYQvF/c0ZXPmZTUIz0WpH4fsu5/Q=="/>
-    </ext>
-  </extLst>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -227,77 +225,97 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8.0"/>
+      <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -305,7 +323,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -363,7 +381,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -377,128 +401,107 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -688,27 +691,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F999"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="10.63"/>
-    <col customWidth="1" min="3" max="3" width="29.88"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="12.13"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
+    <row r="1" spans="1:6" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -725,9 +728,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:6" ht="12.75" customHeight="1">
       <c r="A2" s="2">
-        <v>44886.0</v>
+        <v>44886</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -741,126 +744,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:6" ht="12.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:6" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:6" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:6" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:6" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:6" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:6" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:6" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:6" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:6" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:6" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:6" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:6" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1"/>
-    <row r="19" ht="12.75" customHeight="1"/>
-    <row r="20" ht="12.75" customHeight="1"/>
-    <row r="21" ht="12.75" customHeight="1"/>
-    <row r="22" ht="12.75" customHeight="1"/>
-    <row r="23" ht="12.75" customHeight="1"/>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -1829,32 +1832,28 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E910"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.5"/>
-    <col customWidth="1" min="2" max="2" width="61.5"/>
-    <col customWidth="1" min="3" max="3" width="25.63"/>
-    <col customWidth="1" min="4" max="4" width="10.63"/>
-    <col customWidth="1" min="5" max="5" width="11.88"/>
-    <col customWidth="1" min="6" max="26" width="10.63"/>
+    <col min="1" max="1" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="26" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="39.6">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1871,7 +1870,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
+    <row r="2" spans="1:5" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1884,7 +1883,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
+    <row r="3" spans="1:5" ht="12.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1892,12 +1891,12 @@
         <v>17</v>
       </c>
       <c r="C3" s="5">
-        <v>1000.0</v>
+        <v>1000</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" ht="12.75" customHeight="1">
+    <row r="4" spans="1:5" ht="12.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -1912,7 +1911,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" ht="12.75" customHeight="1">
+    <row r="5" spans="1:5" ht="12.75" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1927,7 +1926,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" ht="12.75" customHeight="1">
+    <row r="6" spans="1:5" ht="12.75" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1941,7 +1940,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" ht="12.75" customHeight="1">
+    <row r="7" spans="1:5" ht="12.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
@@ -1955,7 +1954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:5" ht="12.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -1970,7 +1969,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" ht="12.75" customHeight="1">
+    <row r="9" spans="1:5" ht="12.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -1987,7 +1986,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" ht="12.75" customHeight="1">
+    <row r="10" spans="1:5" ht="12.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
@@ -2002,7 +2001,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" ht="12.75" customHeight="1">
+    <row r="11" spans="1:5" ht="12.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" ht="12.75" customHeight="1">
+    <row r="12" spans="1:5" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -2034,7 +2033,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" ht="12.75" customHeight="1">
+    <row r="13" spans="1:5" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2049,7 +2048,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" ht="12.75" customHeight="1">
+    <row r="14" spans="1:5" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
@@ -2064,7 +2063,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" ht="12.75" customHeight="1">
+    <row r="15" spans="1:5" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>44</v>
       </c>
@@ -2079,7 +2078,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
@@ -2091,7 +2090,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" ht="12.75" customHeight="1">
+    <row r="17" spans="1:5" ht="12.75" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -2106,7 +2105,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
+    <row r="18" spans="1:5" ht="12.75" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>50</v>
       </c>
@@ -2118,7 +2117,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" ht="12.75" customHeight="1">
+    <row r="19" spans="1:5" ht="12.75" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -2130,7 +2129,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" ht="12.75" customHeight="1">
+    <row r="20" spans="1:5" ht="12.75" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>54</v>
       </c>
@@ -2142,7 +2141,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" ht="12.75" customHeight="1">
+    <row r="21" spans="1:5" ht="12.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
@@ -2154,7 +2153,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
+    <row r="22" spans="1:5" ht="12.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
@@ -2171,7 +2170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
+    <row r="23" spans="1:5" ht="12.75" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -2188,15 +2187,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" ht="12.75" customHeight="1"/>
-    <row r="25" ht="12.75" customHeight="1"/>
-    <row r="26" ht="12.75" customHeight="1"/>
-    <row r="27" ht="12.75" customHeight="1"/>
-    <row r="28" ht="12.75" customHeight="1"/>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
+    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3076,28 +3075,28 @@
     <row r="909" ht="12.75" customHeight="1"/>
     <row r="910" ht="12.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:U959"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.63"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -3162,7 +3161,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:21" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -3189,7 +3188,7 @@
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:21" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
@@ -3214,7 +3213,7 @@
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:21" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>64</v>
       </c>
@@ -3241,7 +3240,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:21" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>66</v>
       </c>
@@ -3266,7 +3265,7 @@
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:21" ht="15.75" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>67</v>
       </c>
@@ -3291,16 +3290,16 @@
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1"/>
-    <row r="8" ht="15.75" customHeight="1"/>
-    <row r="9" ht="15.75" customHeight="1"/>
-    <row r="10" ht="15.75" customHeight="1"/>
-    <row r="11" ht="15.75" customHeight="1"/>
-    <row r="12" ht="15.75" customHeight="1"/>
-    <row r="13" ht="15.75" customHeight="1"/>
-    <row r="14" ht="15.75" customHeight="1"/>
-    <row r="15" ht="15.75" customHeight="1"/>
-    <row r="16" ht="15.75" customHeight="1"/>
+    <row r="7" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="8" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="9" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="10" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="11" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="12" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="13" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="15" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="16" spans="1:21" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4244,39 +4243,8 @@
     <row r="957" ht="15.75" customHeight="1"/>
     <row r="958" ht="15.75" customHeight="1"/>
     <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNR_JDD/RT/JDD.RT.EMP.xlsx
+++ b/TNR_JDD/RT/JDD.RT.EMP.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <bookViews>
-    <workbookView xWindow="228" yWindow="552" windowWidth="26844" windowHeight="10260" activeTab="2"/>
-  </bookViews>
   <sheets>
-    <sheet name="Version" sheetId="1" r:id="rId1"/>
-    <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="001" sheetId="3" r:id="rId3"/>
+    <sheet state="visible" name="Version" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Info" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="001" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mjYQvF/c0ZXPmZTUIz0WpH4fsu5/Q=="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -225,97 +227,77 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="13">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <i/>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
+      <sz val="9.0"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -323,7 +305,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -381,13 +363,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -401,107 +377,128 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="32">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf quotePrefix="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="2" fillId="7" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="10" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="8" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="9" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="10" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+  <cellStyles count="1">
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -691,27 +688,27 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F999"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="2" width="10.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.88671875" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="2" width="10.63"/>
+    <col customWidth="1" min="3" max="3" width="29.88"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="12.75" customHeight="1">
+    <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,9 +725,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="2">
-        <v>44886</v>
+        <v>44886.0</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
@@ -744,126 +741,126 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:6" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="18" ht="12.75" customHeight="1"/>
+    <row r="19" ht="12.75" customHeight="1"/>
+    <row r="20" ht="12.75" customHeight="1"/>
+    <row r="21" ht="12.75" customHeight="1"/>
+    <row r="22" ht="12.75" customHeight="1"/>
+    <row r="23" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -1832,28 +1829,32 @@
     <row r="998" ht="12.75" customHeight="1"/>
     <row r="999" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E910"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="13.44140625" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="26" width="10.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="13.5"/>
+    <col customWidth="1" min="2" max="2" width="61.5"/>
+    <col customWidth="1" min="3" max="3" width="25.63"/>
+    <col customWidth="1" min="4" max="4" width="10.63"/>
+    <col customWidth="1" min="5" max="5" width="11.88"/>
+    <col customWidth="1" min="6" max="26" width="10.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39.6">
+    <row r="1">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -1870,7 +1871,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" customHeight="1">
+    <row r="2" ht="12.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1883,7 +1884,7 @@
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" customHeight="1">
+    <row r="3" ht="12.75" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -1891,12 +1892,12 @@
         <v>17</v>
       </c>
       <c r="C3" s="5">
-        <v>1000</v>
+        <v>1000.0</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
     </row>
-    <row r="4" spans="1:5" ht="12.75" customHeight="1">
+    <row r="4" ht="12.75" customHeight="1">
       <c r="A4" s="13" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1912,7 @@
       </c>
       <c r="E4" s="16"/>
     </row>
-    <row r="5" spans="1:5" ht="12.75" customHeight="1">
+    <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>22</v>
       </c>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="E5" s="16"/>
     </row>
-    <row r="6" spans="1:5" ht="12.75" customHeight="1">
+    <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="13" t="s">
         <v>24</v>
       </c>
@@ -1940,7 +1941,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="12.75" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="13" t="s">
         <v>27</v>
       </c>
@@ -1954,7 +1955,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="12.75" customHeight="1">
+    <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="13" t="s">
         <v>29</v>
       </c>
@@ -1969,7 +1970,7 @@
       </c>
       <c r="E8" s="17"/>
     </row>
-    <row r="9" spans="1:5" ht="12.75" customHeight="1">
+    <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="13" t="s">
         <v>31</v>
       </c>
@@ -1986,7 +1987,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="12.75" customHeight="1">
+    <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="13" t="s">
         <v>34</v>
       </c>
@@ -2001,7 +2002,7 @@
       </c>
       <c r="E10" s="16"/>
     </row>
-    <row r="11" spans="1:5" ht="12.75" customHeight="1">
+    <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="13" t="s">
         <v>36</v>
       </c>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="E11" s="16"/>
     </row>
-    <row r="12" spans="1:5" ht="12.75" customHeight="1">
+    <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="13" t="s">
         <v>38</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="12.75" customHeight="1">
+    <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="13" t="s">
         <v>40</v>
       </c>
@@ -2048,7 +2049,7 @@
       </c>
       <c r="E13" s="16"/>
     </row>
-    <row r="14" spans="1:5" ht="12.75" customHeight="1">
+    <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="13" t="s">
         <v>42</v>
       </c>
@@ -2063,7 +2064,7 @@
       </c>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="13" t="s">
         <v>44</v>
       </c>
@@ -2078,7 +2079,7 @@
       </c>
       <c r="E15" s="16"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="13" t="s">
         <v>46</v>
       </c>
@@ -2090,7 +2091,7 @@
       </c>
       <c r="E16" s="16"/>
     </row>
-    <row r="17" spans="1:5" ht="12.75" customHeight="1">
+    <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="13" t="s">
         <v>48</v>
       </c>
@@ -2105,7 +2106,7 @@
       </c>
       <c r="E17" s="16"/>
     </row>
-    <row r="18" spans="1:5" ht="12.75" customHeight="1">
+    <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="13" t="s">
         <v>50</v>
       </c>
@@ -2117,7 +2118,7 @@
       </c>
       <c r="E18" s="16"/>
     </row>
-    <row r="19" spans="1:5" ht="12.75" customHeight="1">
+    <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="13" t="s">
         <v>52</v>
       </c>
@@ -2129,7 +2130,7 @@
       </c>
       <c r="E19" s="16"/>
     </row>
-    <row r="20" spans="1:5" ht="12.75" customHeight="1">
+    <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="13" t="s">
         <v>54</v>
       </c>
@@ -2141,7 +2142,7 @@
       </c>
       <c r="E20" s="16"/>
     </row>
-    <row r="21" spans="1:5" ht="12.75" customHeight="1">
+    <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="13" t="s">
         <v>56</v>
       </c>
@@ -2153,7 +2154,7 @@
       </c>
       <c r="E21" s="16"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75" customHeight="1">
+    <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="13" t="s">
         <v>58</v>
       </c>
@@ -2170,7 +2171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="12.75" customHeight="1">
+    <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="13" t="s">
         <v>60</v>
       </c>
@@ -2187,15 +2188,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="25" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="26" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="27" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="28" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="29" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="30" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="31" spans="1:5" ht="12.75" customHeight="1"/>
-    <row r="32" spans="1:5" ht="12.75" customHeight="1"/>
+    <row r="24" ht="12.75" customHeight="1"/>
+    <row r="25" ht="12.75" customHeight="1"/>
+    <row r="26" ht="12.75" customHeight="1"/>
+    <row r="27" ht="12.75" customHeight="1"/>
+    <row r="28" ht="12.75" customHeight="1"/>
+    <row r="29" ht="12.75" customHeight="1"/>
+    <row r="30" ht="12.75" customHeight="1"/>
+    <row r="31" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1"/>
     <row r="33" ht="12.75" customHeight="1"/>
     <row r="34" ht="12.75" customHeight="1"/>
     <row r="35" ht="12.75" customHeight="1"/>
@@ -3075,28 +3076,28 @@
     <row r="909" ht="12.75" customHeight="1"/>
     <row r="910" ht="12.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U959"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="16.63"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" customHeight="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="22" t="s">
         <v>17</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="25" t="s">
         <v>26</v>
       </c>
@@ -3188,7 +3189,7 @@
       <c r="T2" s="26"/>
       <c r="U2" s="26"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="25" t="s">
         <v>63</v>
       </c>
@@ -3213,7 +3214,7 @@
       <c r="T3" s="26"/>
       <c r="U3" s="26"/>
     </row>
-    <row r="4" spans="1:21" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="25" t="s">
         <v>64</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="T4" s="26"/>
       <c r="U4" s="26"/>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="25" t="s">
         <v>66</v>
       </c>
@@ -3265,7 +3266,7 @@
       <c r="T5" s="26"/>
       <c r="U5" s="26"/>
     </row>
-    <row r="6" spans="1:21" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="30" t="s">
         <v>67</v>
       </c>
@@ -3290,16 +3291,16 @@
       <c r="T6" s="31"/>
       <c r="U6" s="31"/>
     </row>
-    <row r="7" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="8" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="9" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="10" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="11" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="12" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="13" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="14" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="15" spans="1:21" ht="15.75" customHeight="1"/>
-    <row r="16" spans="1:21" ht="15.75" customHeight="1"/>
+    <row r="7" ht="15.75" customHeight="1"/>
+    <row r="8" ht="15.75" customHeight="1"/>
+    <row r="9" ht="15.75" customHeight="1"/>
+    <row r="10" ht="15.75" customHeight="1"/>
+    <row r="11" ht="15.75" customHeight="1"/>
+    <row r="12" ht="15.75" customHeight="1"/>
+    <row r="13" ht="15.75" customHeight="1"/>
+    <row r="14" ht="15.75" customHeight="1"/>
+    <row r="15" ht="15.75" customHeight="1"/>
+    <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
     <row r="18" ht="15.75" customHeight="1"/>
     <row r="19" ht="15.75" customHeight="1"/>
@@ -4243,8 +4244,39 @@
     <row r="957" ht="15.75" customHeight="1"/>
     <row r="958" ht="15.75" customHeight="1"/>
     <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>